--- a/0.doc/perfomanse_table_2.xlsx
+++ b/0.doc/perfomanse_table_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\eduBOS5\0.doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C160A921-788D-4478-9A7A-F834AD626B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C75117F-BBA3-42DB-B764-046C72710798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="36" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="4155" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="69">
   <si>
     <t>Xilinx</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Pnorm/DMIPS</t>
+  </si>
+  <si>
+    <t>eduBOS5  (BSRAM RF, LUT_ALU)</t>
+  </si>
+  <si>
+    <t>eduBOS5  (SSRAM RF, DSP_ALU)</t>
   </si>
 </sst>
 </file>
@@ -836,32 +842,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" customWidth="1"/>
-    <col min="3" max="3" width="25.296875" customWidth="1"/>
-    <col min="4" max="4" width="81.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.8984375" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" customWidth="1"/>
-    <col min="7" max="7" width="7.09765625" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="81.25" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" customWidth="1"/>
-    <col min="11" max="11" width="16.796875" customWidth="1"/>
+    <col min="10" max="10" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="20.19921875" customWidth="1"/>
-    <col min="16" max="16" width="15.796875" customWidth="1"/>
-    <col min="17" max="17" width="27.69921875" customWidth="1"/>
+    <col min="13" max="13" width="20.25" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -902,7 +908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -945,7 +951,7 @@
         <v>6.0540540540540535</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="28"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -982,7 +988,7 @@
         <v>2.6053691275167785</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>6.5729729729729724</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="28"/>
       <c r="B5" s="34"/>
       <c r="C5" s="30"/>
@@ -1062,7 +1068,7 @@
         <v>3.0590604026845636</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>7.9756756756756761</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="31"/>
@@ -1142,7 +1148,7 @@
         <v>3.1315436241610737</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="31"/>
       <c r="B8" s="32"/>
       <c r="C8" s="31"/>
@@ -1177,7 +1183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="31"/>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
@@ -1214,7 +1220,7 @@
         <v>2.7657718120805366</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="31"/>
@@ -1251,7 +1257,7 @@
         <v>7.9324324324324316</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="31"/>
       <c r="B11" s="32"/>
       <c r="C11" s="28"/>
@@ -1288,7 +1294,7 @@
         <v>1.5705882352941176</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="27" t="s">
@@ -1327,7 +1333,7 @@
         <v>7.9756756756756753</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -1364,7 +1370,7 @@
         <v>3.1315436241610741</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="31"/>
@@ -1399,7 +1405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -1436,7 +1442,7 @@
         <v>2.765771812080537</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="31"/>
@@ -1473,7 +1479,7 @@
         <v>7.9324324324324325</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A17" s="28"/>
       <c r="B17" s="30"/>
       <c r="C17" s="28"/>
@@ -1510,8 +1516,667 @@
         <v>1.5705882352941176</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.222</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" ref="L29:L34" si="2">K29*E29</f>
+        <v>42.846000000000004</v>
+      </c>
+      <c r="M29" s="20">
+        <f>((F29+H29)*40+G29*10)*0.3*E29/22780/L29</f>
+        <v>2.6576181097691194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="2"/>
+        <v>58.333500000000001</v>
+      </c>
+      <c r="M30" s="20">
+        <f>((F30+H30)*40+G30*10)*0.3*E30/22780/L30</f>
+        <v>1.1437090112013952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.222</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="2"/>
+        <v>20.881320000000002</v>
+      </c>
+      <c r="M31" s="21">
+        <f>((F31+H31)*40+G31*10)*0.3*E31/22780/L31</f>
+        <v>2.8854139477493295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="28"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="2"/>
+        <v>32.036042999999999</v>
+      </c>
+      <c r="M32" s="21">
+        <f>((F32+H32)*40+G32*10)*0.3*E32/22780/L32</f>
+        <v>1.3428711161916436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>26.266152000000002</v>
+      </c>
+      <c r="M33" s="19">
+        <f>((F33+H33)*40+G33*10)*0.3*E33/22780/L33</f>
+        <v>3.5011745722895857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>39.372207000000003</v>
+      </c>
+      <c r="M34" s="19">
+        <f>((F34+H34)*40+G34*10)*0.3*E34/22780/L34</f>
+        <v>1.3746899140303219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L36" s="9">
+        <f>K36*E36</f>
+        <v>50.783670000000001</v>
+      </c>
+      <c r="M36" s="22">
+        <f>((F36+H36)*40+G36*10)*0.3*E36/22780/L36</f>
+        <v>1.2141228323443971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0.222</v>
+      </c>
+      <c r="L37" s="11">
+        <f>K37*E37</f>
+        <v>25.824594000000001</v>
+      </c>
+      <c r="M37" s="23">
+        <f>((F37)*40+G37*10)*0.3*E37/22780/L37</f>
+        <v>3.4821915857912344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="11">
+        <v>74.94</v>
+      </c>
+      <c r="F38" s="11">
+        <v>802</v>
+      </c>
+      <c r="G38" s="11">
+        <v>187</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L38" s="11">
+        <f>K38*E38</f>
+        <v>33.498179999999998</v>
+      </c>
+      <c r="M38" s="23">
+        <f>((F38)*40+G38*10)*0.3*E38/22780/L38</f>
+        <v>1.000229802428835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="13">
+        <v>0.222</v>
+      </c>
+      <c r="L39" s="13">
+        <f>K39*E39</f>
+        <v>14.057928</v>
+      </c>
+      <c r="M39" s="24">
+        <f>((F39+H39)*40+G39*10)*0.3*E39/22780/L39</f>
+        <v>3.5011745722895848</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L40" s="13">
+        <f>K40*E40</f>
+        <v>22.716093000000001</v>
+      </c>
+      <c r="M40" s="24">
+        <f>((F40+H40)*40+G40*10)*0.3*E40/22780/L40</f>
+        <v>1.3746899140303224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="15">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L42" s="15">
+        <f>K42*E42</f>
+        <v>25.055244000000002</v>
+      </c>
+      <c r="M42" s="25">
+        <f>((F42+H42)*40+G42*10)*0.3*E42/22780/L42</f>
+        <v>1.2141228323443973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="17">
+        <v>0.222</v>
+      </c>
+      <c r="L43" s="17">
+        <f>K43*E43</f>
+        <v>12.390929999999999</v>
+      </c>
+      <c r="M43" s="26">
+        <f>((F43)*40+G43*10)*0.3*E43/22780/L43</f>
+        <v>3.4821915857912344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="17">
+        <v>38</v>
+      </c>
+      <c r="F44" s="17">
+        <v>802</v>
+      </c>
+      <c r="G44" s="17">
+        <v>187</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="17">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L44" s="17">
+        <f>K44*E44</f>
+        <v>16.986000000000001</v>
+      </c>
+      <c r="M44" s="26">
+        <f>((F44)*40+G44*10)*0.3*E44/22780/L44</f>
+        <v>1.000229802428835</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
